--- a/tests/unit/timesheet/test_timesheet_report.xlsx
+++ b/tests/unit/timesheet/test_timesheet_report.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
   <extLst>
@@ -113,8 +114,83 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={86F42997-CFD4-F3B7-0140-95566BAD8DC7}</author>
+    <author>tc={A9150FBB-77BC-DAFF-4463-F98E53A07832}</author>
+    <author>tc={055AE05B-B75A-49E6-44E9-B2414567D095}</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" xr:uid="{86F42997-CFD4-F3B7-0140-95566BAD8DC7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Unknown Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Cannot use these in Non-working days (i.e. HOLs+saturdays) AND cannot have more than 1 for a day
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" xr:uid="{A9150FBB-77BC-DAFF-4463-F98E53A07832}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Unknown Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Can be added any day
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="2" xr:uid="{055AE05B-B75A-49E6-44E9-B2414567D095}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Unknown Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Cannot use these in Non-working days (i.e. HOLs+saturdays) AND cannot have more than 1 for a day
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Fri</t>
   </si>
@@ -213,6 +289,18 @@
   </si>
   <si>
     <t xml:space="preserve">extra_hours "Ore Straordinario"</t>
+  </si>
+  <si>
+    <t>SL1</t>
+  </si>
+  <si>
+    <t>SL2</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is DRAFT: to be verified if can have multiple leaves</t>
   </si>
 </sst>
 </file>
@@ -222,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
@@ -241,6 +329,13 @@
     <font>
       <sz val="11.000000"/>
       <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -272,6 +367,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
@@ -324,12 +425,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF41190D"/>
-        <bgColor indexed="63"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF2A6099"/>
         <bgColor indexed="48"/>
       </patternFill>
@@ -347,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -370,8 +465,23 @@
       </bottom>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -382,8 +492,9 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="3" fillId="3" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -391,18 +502,70 @@
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="6" fillId="5" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="3" fillId="3" borderId="1" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -410,66 +573,28 @@
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="0" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="4" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="4" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="4" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="3" fillId="3" borderId="1" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="4" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="4" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
@@ -478,6 +603,7 @@
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
+    <cellStyle name="Check Cell" xfId="8" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,7 +617,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Unknown Author" id="{A2BF2DA4-C1CE-806C-3C8B-0F2C497C31FA}"/>
+  <person displayName="Unknown Author" id="{1882BC3A-5E7F-2078-D666-1F999309F8C4}"/>
+  <person displayName="Unknown Author" id="{2B4BA865-D4DE-2FB9-0FB9-B317A7C18DBA}"/>
 </personList>
 </file>
 
@@ -905,19 +1032,36 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A13" personId="{A2BF2DA4-C1CE-806C-3C8B-0F2C497C31FA}" id="{00140041-00A7-4253-A02C-0040006D00F7}" done="0">
+  <threadedComment ref="A13" personId="{1882BC3A-5E7F-2078-D666-1F999309F8C4}" id="{00140041-00A7-4253-A02C-0040006D00F7}" done="0">
     <text xml:space="preserve">Can be added any day
 </text>
   </threadedComment>
-  <threadedComment ref="A23" personId="{A2BF2DA4-C1CE-806C-3C8B-0F2C497C31FA}" id="{7D45CBF1-EFB8-CEDC-6622-B8C15101BF66}" done="0">
+  <threadedComment ref="A23" personId="{1882BC3A-5E7F-2078-D666-1F999309F8C4}" id="{7D45CBF1-EFB8-CEDC-6622-B8C15101BF66}" done="0">
     <text xml:space="preserve">Cannot use these in Non-working days (i.e. HOLs+saturdays) AND cannot have more than 1 for a day
 </text>
   </threadedComment>
-  <threadedComment ref="A28" personId="{A2BF2DA4-C1CE-806C-3C8B-0F2C497C31FA}" id="{A6216EDD-5616-A753-9374-D3726376F4B7}" done="0">
+  <threadedComment ref="A28" personId="{1882BC3A-5E7F-2078-D666-1F999309F8C4}" id="{A6216EDD-5616-A753-9374-D3726376F4B7}" done="0">
     <text xml:space="preserve">Can be added any day
 </text>
   </threadedComment>
-  <threadedComment ref="A8" personId="{A2BF2DA4-C1CE-806C-3C8B-0F2C497C31FA}" id="{00C100F5-00C9-4DAD-A51B-002E005100C2}" done="0">
+  <threadedComment ref="A8" personId="{1882BC3A-5E7F-2078-D666-1F999309F8C4}" id="{00C100F5-00C9-4DAD-A51B-002E005100C2}" done="0">
+    <text xml:space="preserve">Cannot use these in Non-working days (i.e. HOLs+saturdays) AND cannot have more than 1 for a day
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F1" personId="{1882BC3A-5E7F-2078-D666-1F999309F8C4}" id="{86F42997-CFD4-F3B7-0140-95566BAD8DC7}" done="0">
+    <text xml:space="preserve">Cannot use these in Non-working days (i.e. HOLs+saturdays) AND cannot have more than 1 for a day
+</text>
+  </threadedComment>
+  <threadedComment ref="J1" personId="{1882BC3A-5E7F-2078-D666-1F999309F8C4}" id="{A9150FBB-77BC-DAFF-4463-F98E53A07832}" done="0">
+    <text xml:space="preserve">Can be added any day
+</text>
+  </threadedComment>
+  <threadedComment ref="A6" personId="{2B4BA865-D4DE-2FB9-0FB9-B317A7C18DBA}" id="{055AE05B-B75A-49E6-44E9-B2414567D095}" done="0">
     <text xml:space="preserve">Cannot use these in Non-working days (i.e. HOLs+saturdays) AND cannot have more than 1 for a day
 </text>
   </threadedComment>
@@ -1278,7 +1422,7 @@
       </c>
       <c r="B10" s="1">
         <f>SUM(C10:W10)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1290,9 +1434,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="5"/>
       <c r="T10" s="2"/>
-      <c r="W10" s="15">
-        <v>3</v>
-      </c>
+      <c r="W10" s="15"/>
       <c r="Z10" s="1"/>
     </row>
     <row r="11" s="9" customFormat="1" ht="14.25">
@@ -1371,7 +1513,6 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="17" ht="12.75">
-      <c r="A17"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3">
         <v>45807</v>
@@ -1415,7 +1556,6 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" ht="12.75">
-      <c r="A18"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
         <v>0</v>
@@ -1459,7 +1599,7 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" ht="12.75">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="1"/>
@@ -1492,7 +1632,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" ht="12.75">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="1"/>
@@ -1525,7 +1665,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" ht="12.75">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="1"/>
@@ -1558,7 +1698,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" ht="12.75">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="1"/>
@@ -1591,7 +1731,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" ht="12.75">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="1">
@@ -1622,7 +1762,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" ht="12.75">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1"/>
@@ -1653,7 +1793,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" ht="12.75">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="1"/>
@@ -1668,9 +1808,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1">
-        <v>3</v>
-      </c>
+      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -1684,7 +1822,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" ht="12.75">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="1"/>
@@ -1715,7 +1853,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" ht="12.75">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="1"/>
@@ -1746,7 +1884,7 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" ht="12.75">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="1"/>
@@ -1939,4 +2077,246 @@
   </headerFooter>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" style="1" width="10.8515625"/>
+    <col customWidth="1" min="2" max="11" width="10.8515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>